--- a/experiments/collated_data.mammoth-run.xlsx
+++ b/experiments/collated_data.mammoth-run.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewblinn/Dropbox/projects/hazel3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewblinn/Dropbox/projects/hazel3/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C049BC58-95CD-084A-81C7-456A364B8414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B7ED3-E273-7642-AFAE-916EEA212BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="67" r:id="rId3"/>
+    <pivotCache cacheId="76" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3174,7 +3174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3783,17 +3783,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3809,34 +3802,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3846,12 +3823,34 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3913,7 +3912,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="andrew blinn" refreshedDate="45386.532224768518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1001">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="andrew blinn" refreshedDate="45386.532224768518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1001" xr:uid="{00000000-000A-0000-FFFF-FFFF43000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R1048576" sheet="collated_data"/>
   </cacheSource>
@@ -24030,7 +24029,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable12" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A6:R22" firstHeaderRow="1" firstDataRow="3" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField compact="0" showAll="0" defaultSubtotal="0"/>
@@ -24524,10 +24523,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -24631,89 +24630,59 @@
       <c r="A9" t="s">
         <v>525</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>525</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>20</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>20</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>20</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11">
         <v>20</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11">
         <v>20</v>
       </c>
     </row>
@@ -24721,49 +24690,49 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>20</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>20</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <v>20</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>20</v>
       </c>
     </row>
@@ -24771,69 +24740,54 @@
       <c r="B13" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>0.625</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>2.7950849718747373</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>20</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>20</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14">
         <v>20</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14">
         <v>20</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14">
         <v>20</v>
       </c>
     </row>
@@ -24841,49 +24795,49 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>20</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>20</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15">
         <v>20</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15">
         <v>20</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15">
         <v>20</v>
       </c>
     </row>
@@ -24891,89 +24845,59 @@
       <c r="A16" t="s">
         <v>526</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>525</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>26.25</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>7.0650000000000004</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>10.005000000000001</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>14.994999999999999</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>32.164257704542329</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>10.905106239980569</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>24.435381487119301</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18">
         <v>21.897163358706869</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18">
         <v>20</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18">
         <v>20</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18">
         <v>20</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18">
         <v>20</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18">
         <v>20</v>
       </c>
     </row>
@@ -24981,49 +24905,49 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>30.625</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>40.010000000000005</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>53.015000000000008</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>47.373684210526321</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>35.926414194045378</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>4.4721359549995796</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>15.191961170649629</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>29.866162423296647</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19">
         <v>32.509790698004643</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>20</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>20</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19">
         <v>20</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19">
         <v>20</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19">
         <v>20</v>
       </c>
     </row>
@@ -25031,69 +24955,54 @@
       <c r="B20" t="s">
         <v>526</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>28.125</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>79</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>29.144999999999992</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>67.690000000000026</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>34.989999999999995</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>34.142455050012224</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>35.821193373990795</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <v>38.678655544587407</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>13.737650913878126</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21">
         <v>30.894658029129278</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>20</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21">
         <v>20</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21">
         <v>20</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21">
         <v>20</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21">
         <v>20</v>
       </c>
     </row>
@@ -25101,958 +25010,958 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>41.25</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>95</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>92.5</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>81.365000000000023</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>71.24499999999999</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>41.970384295294899</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>22.360679774997898</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22">
         <v>21.785775175558936</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <v>13.779552929880001</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22">
         <v>12.539305571303668</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>20</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>20</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22">
         <v>20</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="3" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0</v>
-      </c>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
-        <v>0</v>
-      </c>
-      <c r="M30" s="12">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
         <f>SUM(D30:H30)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>23.75</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>20.010000000000002</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>23.330000000000002</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="8">
         <v>31.977639757249822</v>
       </c>
-      <c r="J31" s="12">
-        <v>0</v>
-      </c>
-      <c r="K31" s="12">
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
         <v>4.3744840965662588</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="9">
         <v>32.21916096569452</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="9">
         <v>26.58646481033368</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="2">
         <f t="shared" ref="N31:N38" si="0">SUM(D31:H31)/5</f>
         <v>14.247999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="7">
         <v>38.75</v>
       </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
         <v>37.510000000000005</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>61.35</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>54.622222222222227</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="8">
         <v>38.841737288071393</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="9">
         <v>6.324555320336759</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="9">
         <v>16.781103791003872</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="9">
         <v>27.551981174983883</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="9">
         <v>32.031772421213965</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="2">
         <f t="shared" si="0"/>
         <v>38.846444444444451</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="7">
         <v>21.25</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>82</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>41.650000000000006</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>62.680000000000007</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>22.49</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="8">
         <v>27.669929526473318</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="9">
         <v>31.902629637347729</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="9">
         <v>44.114755656884981</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="9">
         <v>15.789363508387501</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="9">
         <v>27.781786599617149</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <f t="shared" si="0"/>
         <v>46.014000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="7">
         <v>37.5</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>100</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>88.33</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>78.03</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>72.5</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="8">
         <v>43.301270189221931</v>
       </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12">
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
         <v>29.196653156749935</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="9">
         <v>18.333942414124763</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="9">
         <v>5.6300779548579651</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="2">
         <f t="shared" si="0"/>
         <v>75.272000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D35" s="22"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="3"/>
+      <c r="D35" s="13"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="3"/>
+      <c r="D36" s="13"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
         <v>12</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>30.009999999999998</v>
       </c>
-      <c r="I37" s="26">
-        <v>0</v>
-      </c>
-      <c r="J37" s="27">
-        <v>0</v>
-      </c>
-      <c r="K37" s="27">
-        <v>0</v>
-      </c>
-      <c r="L37" s="27">
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>25.494618168459702</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="15">
         <v>25.228839317997441</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="2">
         <f t="shared" si="0"/>
         <v>8.4019999999999992</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="17" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
         <v>20.669999999999998</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>69.989999999999981</v>
       </c>
-      <c r="I38" s="26">
-        <v>0</v>
-      </c>
-      <c r="J38" s="27">
-        <v>0</v>
-      </c>
-      <c r="K38" s="27">
-        <v>0</v>
-      </c>
-      <c r="L38" s="27">
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
         <v>34.212052781959109</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="15">
         <v>28.393404946297764</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <f t="shared" si="0"/>
         <v>18.131999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="4" t="s">
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="3" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0</v>
-      </c>
-      <c r="K42" s="12">
-        <v>0</v>
-      </c>
-      <c r="L42" s="12">
-        <v>0</v>
-      </c>
-      <c r="M42" s="12">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
         <f>SUM(D42:H42)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <v>0</v>
-      </c>
-      <c r="K43" s="12">
-        <v>0</v>
-      </c>
-      <c r="L43" s="12">
-        <v>0</v>
-      </c>
-      <c r="M43" s="12">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
         <f t="shared" ref="N43:N49" si="1">SUM(D43:H43)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="7">
         <v>0.625</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
         <v>2.7950849718747373</v>
       </c>
-      <c r="J44" s="12">
-        <v>0</v>
-      </c>
-      <c r="K44" s="12">
-        <v>0</v>
-      </c>
-      <c r="L44" s="12">
-        <v>0</v>
-      </c>
-      <c r="M44" s="12">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-      <c r="J45" s="12">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12">
-        <v>0</v>
-      </c>
-      <c r="L45" s="12">
-        <v>0</v>
-      </c>
-      <c r="M45" s="12">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="7">
         <v>26.25</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>7.0650000000000004</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>10.005000000000001</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>14.994999999999999</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="8">
         <v>32.164257704542329</v>
       </c>
-      <c r="J46" s="12">
-        <v>0</v>
-      </c>
-      <c r="K46" s="12">
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
         <v>10.905106239980569</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="9">
         <v>24.435381487119301</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="9">
         <v>21.897163358706869</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="2">
         <f t="shared" si="1"/>
         <v>11.663</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="7">
         <v>30.625</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
         <v>40.010000000000005</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>53.015000000000008</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>47.373684210526321</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="8">
         <v>35.926414194045378</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="9">
         <v>4.4721359549995796</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="9">
         <v>15.191961170649629</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="9">
         <v>29.866162423296647</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="9">
         <v>32.509790698004643</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="2">
         <f t="shared" si="1"/>
         <v>34.404736842105265</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="7">
         <v>28.125</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>79</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>29.144999999999992</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>67.690000000000026</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>34.989999999999995</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="8">
         <v>34.142455050012224</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="9">
         <v>35.821193373990795</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="9">
         <v>38.678655544587407</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="9">
         <v>13.737650913878126</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="9">
         <v>30.894658029129278</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="2">
         <f t="shared" si="1"/>
         <v>47.79</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="7">
         <v>41.25</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>95</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>92.5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>81.365000000000023</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>71.24499999999999</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="8">
         <v>41.970384295294899</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="9">
         <v>22.360679774997898</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="9">
         <v>21.785775175558936</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="9">
         <v>13.779552929880001</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="9">
         <v>12.539305571303668</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="2">
         <f t="shared" si="1"/>
         <v>76.272000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D50" s="22"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="3"/>
+      <c r="D50" s="13"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="16"/>
+      <c r="C51" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="3"/>
+      <c r="D51" s="13"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
         <v>14.669999999999998</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>33.350000000000009</v>
       </c>
-      <c r="I52" s="26">
-        <v>0</v>
-      </c>
-      <c r="J52" s="27">
-        <v>0</v>
-      </c>
-      <c r="K52" s="27">
-        <v>0</v>
-      </c>
-      <c r="L52" s="27">
+      <c r="I52" s="14">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
         <v>26.63928835780953</v>
       </c>
-      <c r="M52" s="27">
+      <c r="M52" s="15">
         <v>24.194638379520971</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="2">
         <f t="shared" ref="N52:N53" si="2">SUM(D52:H52)/5</f>
         <v>9.6040000000000028</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="17" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
         <v>3</v>
       </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
         <v>20.004999999999999</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>66.664999999999992</v>
       </c>
-      <c r="I53" s="26">
-        <v>0</v>
-      </c>
-      <c r="J53" s="27">
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
         <v>9.233805168766386</v>
       </c>
-      <c r="K53" s="27">
-        <v>0</v>
-      </c>
-      <c r="L53" s="27">
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
         <v>31.497894248747219</v>
       </c>
-      <c r="M53" s="27">
+      <c r="M53" s="15">
         <v>30.111883910369652</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="2">
         <f t="shared" si="2"/>
         <v>17.933999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A37:B38"/>
     <mergeCell ref="D40:H40"/>
     <mergeCell ref="I40:M40"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A42:A45"/>
   </mergeCells>
   <conditionalFormatting sqref="D30:H34 D37:H38">
     <cfRule type="colorScale" priority="4">
@@ -26066,8 +25975,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30:N38">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D42:H49 D52:H53">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -26078,8 +25987,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:H49 D52:H53">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="N30:N38">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -26107,17 +26016,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1160" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C656" sqref="C656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
